--- a/datos/empleo_prueba.xlsx
+++ b/datos/empleo_prueba.xlsx
@@ -169,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -192,17 +192,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,15 +497,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
   </cols>
@@ -1231,6 +1246,41 @@
         <v>2</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4">
+        <v>7</v>
+      </c>
+      <c r="H23" s="4">
+        <v>8</v>
+      </c>
+      <c r="I23" s="4">
+        <v>9</v>
+      </c>
+      <c r="J23" s="4">
+        <v>10</v>
+      </c>
+      <c r="K23" s="4">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
